--- a/Output/Reach_Actions_Protection.xlsx
+++ b/Output/Reach_Actions_Protection.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,19 +493,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
         </is>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="G8">
@@ -683,19 +683,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,LF_steelhead</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Summer Rearing,Spawning and Incubation</t>
         </is>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing,Spawning and Incubation</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="G10">
@@ -782,17 +782,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Little Wenatchee River Lower 05</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -805,11 +805,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Summer Rearing,Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -820,22 +820,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>White River Lower 08</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Lower White River</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>LF_spring_chinook,LF_bull_trout</t>
         </is>
       </c>
       <c r="E13">
@@ -843,7 +843,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G13">
@@ -858,17 +858,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methow River Thompson 07</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -881,11 +881,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -896,17 +896,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 05</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -919,11 +919,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -934,34 +934,34 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>White River Lower 08</t>
+          <t>Methow River Thompson 07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lower White River</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
+          <t>LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -972,12 +972,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Entiat River Mills 06</t>
+          <t>Entiat River Lake 01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>LF_spring_chinook</t>
         </is>
       </c>
       <c r="E17">
@@ -995,7 +995,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G17">
@@ -1010,22 +1010,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Entiat River Lake 07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>LF_spring_chinook</t>
         </is>
       </c>
       <c r="E18">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G18">
@@ -1048,22 +1048,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Entiat River Lake 08</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>LF_spring_chinook</t>
         </is>
       </c>
       <c r="E19">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G19">
@@ -1086,22 +1086,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Entiat River Lake 10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>LF_spring_chinook</t>
         </is>
       </c>
       <c r="E20">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G20">
@@ -1124,22 +1124,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>LF_spring_chinook</t>
         </is>
       </c>
       <c r="E21">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G21">
@@ -1162,7 +1162,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1200,7 +1200,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1238,7 +1238,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1314,7 +1314,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Nason Creek Lower 10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1352,36 +1352,188 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Nason Creek Lower 12</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 13</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 14</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>Nason Creek Lower 15</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Lower Nason Creek</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Wenatchee</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>LF_steelhead</t>
         </is>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Spawning and Incubation</t>
         </is>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Entiat River Mills 06</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Entiat River-Mills Creek</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>Habitat Protection</t>
         </is>

--- a/Output/Reach_Actions_Protection.xlsx
+++ b/Output/Reach_Actions_Protection.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,17 +402,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Entiat River Lake 03</t>
+          <t>Chewuch River Doe 04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -440,17 +440,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Entiat River Lake 05</t>
+          <t>Chewuch River Pearrygin 08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -478,7 +478,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Entiat River Lake 06</t>
+          <t>Entiat River Lake 01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -516,12 +516,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Entiat River Lake 03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -531,11 +531,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
+          <t>HQ_spring_chinook</t>
         </is>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -554,22 +554,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Entiat River Lake 05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
         </is>
       </c>
       <c r="E6">
@@ -577,11 +577,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Fry</t>
         </is>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -592,34 +592,34 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 06</t>
+          <t>Entiat River Lake 06</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
         </is>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -630,34 +630,34 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Entiat River Lake 07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
         </is>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -668,34 +668,34 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Entiat River Lake 08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
         </is>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Summer Rearing,Spawning and Incubation</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -706,34 +706,34 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Entiat River Lake 10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
         </is>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -744,34 +744,34 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -782,34 +782,34 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 05</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
         </is>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
         </is>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -820,22 +820,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>White River Lower 08</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lower White River</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_bull_trout</t>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
         </is>
       </c>
       <c r="E13">
@@ -843,11 +843,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Winter Rearing,Summer Rearing</t>
         </is>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -858,22 +858,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Little Wenatchee River Lower 03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
         </is>
       </c>
       <c r="E14">
@@ -881,11 +881,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Spawning and Incubation</t>
         </is>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -896,34 +896,34 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
+          <t>HQ_spring_chinook,HQ_steelhead</t>
         </is>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -934,12 +934,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Methow River Thompson 07</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -949,19 +949,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_spring_chinook</t>
         </is>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -972,22 +972,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Entiat River Lake 01</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
+          <t>HQ_spring_chinook</t>
         </is>
       </c>
       <c r="E17">
@@ -995,11 +995,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1010,22 +1010,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Entiat River Lake 07</t>
+          <t>Methow River Rattlesnake 06</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
+          <t>HQ_spring_chinook</t>
         </is>
       </c>
       <c r="E18">
@@ -1033,11 +1033,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1048,34 +1048,34 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Entiat River Lake 08</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
+          <t>HQ_spring_chinook,HQ_steelhead</t>
         </is>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1086,34 +1086,34 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Entiat River Lake 10</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1124,34 +1124,34 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1177,19 +1177,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
         </is>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1200,34 +1200,34 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>HQ_spring_chinook,HQ_steelhead</t>
         </is>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1238,34 +1238,34 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>HQ_spring_chinook,HQ_steelhead</t>
         </is>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1276,34 +1276,34 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>HQ_spring_chinook,HQ_steelhead</t>
         </is>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1314,12 +1314,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>White River Lower 08</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower White River</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1329,11 +1329,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>HQ_spring_chinook,HQ_bull_trout,LF_spring_chinook,LF_bull_trout</t>
         </is>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1352,12 +1352,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Big Meadow Creek 01</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Big Meadow Creek</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>HQ_steelhead</t>
         </is>
       </c>
       <c r="E27">
@@ -1375,11 +1375,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1390,12 +1390,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Little Wenatchee River Lower 02</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>LF_spring_chinook</t>
         </is>
       </c>
       <c r="E28">
@@ -1428,12 +1428,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Little Wenatchee River Lower 04</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>LF_spring_chinook</t>
         </is>
       </c>
       <c r="E29">
@@ -1466,12 +1466,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Little Wenatchee River Lower 05</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>LF_spring_chinook</t>
         </is>
       </c>
       <c r="E30">
@@ -1504,36 +1504,1480 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Nason Creek Lower 05</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 06</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 07</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 08</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 10</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 12</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 13</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 14</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 15</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>White River Lower 05</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Lower White River</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_bull_trout</t>
+        </is>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chewuch River Pearrygin 03</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Chewuch River-Pearrygin Creek</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook</t>
+        </is>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiwawa River Lower 07</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Lower Chiwawa River</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook</t>
+        </is>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Entiat River Potato 01</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Entiat River-Potato Creek</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Entiat River Potato 03</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Entiat River-Potato Creek</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Entiat River Potato 06</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Entiat River-Potato Creek</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Entiat River Potato 08</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Entiat River-Potato Creek</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Entiat River Preston 03</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Entiat River-Preston Creek</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook</t>
+        </is>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Entiat River Preston 04</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Entiat River-Preston Creek</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook</t>
+        </is>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Methow River Thompson 03</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Methow River-Thompson Creek</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Methow River Thompson 05</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Methow River-Thompson Creek</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Methow River Thompson 06</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Methow River-Thompson Creek</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Methow River Thompson 07</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Methow River-Thompson Creek</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chiwawa River Lower 06</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Lower Chiwawa River</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook</t>
+        </is>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Entiat River Lake 04</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Entiat River-Lake Creek</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook</t>
+        </is>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 09</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Entiat River Mills 02</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Entiat River-Mills Creek</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Entiat River Mills 03</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Entiat River-Mills Creek</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Entiat River Mills 04</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Entiat River-Mills Creek</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Entiat River Mills 05</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Entiat River-Mills Creek</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
           <t>Entiat River Mills 06</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>Entiat River-Mills Creek</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Entiat</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>LF_steelhead</t>
         </is>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Entiat River Mills 07</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Entiat River-Mills Creek</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Entiat River Mills 08</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Entiat River-Mills Creek</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Entiat</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 02</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 03</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 04</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 05</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 07</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 08</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Habitat Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Twisp River Lower 10</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
         <is>
           <t>Habitat Protection</t>
         </is>

--- a/Output/Reach_Actions_Protection.xlsx
+++ b/Output/Reach_Actions_Protection.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,6 +398,11 @@
           <t>Action</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Reach_Rank</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -433,19 +438,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+      <c r="I2">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 08</t>
+          <t>Chewuch River Doe 05</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Chewuch River-Doe Creek</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -471,52 +479,58 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+      <c r="I3">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Entiat River Lake 01</t>
+          <t>Chewuch River Pearrygin 08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,LF_spring_chinook</t>
+          <t>HQ_spring_chinook</t>
         </is>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I4">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Entiat River Lake 03</t>
+          <t>Entiat River Lake 01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -547,14 +561,17 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Entiat River Lake 05</t>
+          <t>Entiat River Lake 03</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -569,30 +586,33 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,LF_spring_chinook</t>
+          <t>HQ_spring_chinook</t>
         </is>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fry</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+      <c r="I6">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Entiat River Lake 06</t>
+          <t>Entiat River Lake 04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -607,30 +627,33 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,LF_spring_chinook</t>
+          <t>HQ_spring_chinook</t>
         </is>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+      <c r="I7">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Entiat River Lake 07</t>
+          <t>Entiat River Lake 05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -645,24 +668,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,LF_spring_chinook</t>
+          <t>HQ_spring_chinook</t>
         </is>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+      <c r="I8">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -683,24 +709,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,LF_spring_chinook</t>
+          <t>HQ_spring_chinook</t>
         </is>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+      <c r="I9">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -721,24 +750,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,LF_spring_chinook</t>
+          <t>HQ_spring_chinook</t>
         </is>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+      <c r="I10">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -767,27 +799,30 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I11">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Entiat River Preston 02</t>
+          <t>Entiat River Potato 06</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -797,35 +832,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,LF_spring_chinook</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I12">
         <v>2</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Fry,Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Habitat Protection</t>
-        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Entiat River Preston 05</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -835,40 +873,43 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,LF_spring_chinook</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+      <c r="I13">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 03</t>
+          <t>Entiat River Preston 02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -881,7 +922,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G14">
@@ -889,29 +930,32 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I14">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Entiat River Preston 05</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
         </is>
       </c>
       <c r="E15">
@@ -919,32 +963,35 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I15">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Little Wenatchee River Lower 03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -965,19 +1012,22 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+      <c r="I16">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Methow River Fawn 02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -987,11 +1037,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
+          <t>HQ_spring_chinook,HQ_steelhead</t>
         </is>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1003,19 +1053,22 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I17">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 06</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1025,11 +1078,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
+          <t>HQ_spring_chinook,HQ_steelhead</t>
         </is>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1041,19 +1094,22 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I18">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Methow River Thompson 08</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1063,11 +1119,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
+          <t>HQ_spring_chinook</t>
         </is>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1079,100 +1135,109 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I19">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_spring_chinook</t>
         </is>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+      <c r="I20">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Methow River Rattlesnake 06</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_spring_chinook</t>
         </is>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+      <c r="I21">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Methow River Thompson 07</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1185,27 +1250,30 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I22">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1231,95 +1299,104 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I23">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I24">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I25">
         <v>2</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Habitat Protection</t>
-        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>White River Lower 08</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Lower White River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1329,7 +1406,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_bull_trout,LF_spring_chinook,LF_bull_trout</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E26">
@@ -1337,7 +1414,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G26">
@@ -1345,33 +1422,36 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I26">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Big Meadow Creek 01</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Big Meadow Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HQ_steelhead</t>
+          <t>HQ_spring_chinook,HQ_steelhead</t>
         </is>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1383,95 +1463,98 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 02</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
+          <t>HQ_spring_chinook,HQ_steelhead</t>
         </is>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 04</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
+          <t>HQ_spring_chinook,HQ_steelhead</t>
         </is>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+      <c r="I29">
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Little Wenatchee River Lower 05</t>
+          <t>White River Lower 08</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Lower Little Wenatchee River</t>
+          <t>Lower White River</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1481,35 +1564,38 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
+          <t>HQ_spring_chinook,HQ_bull_trout</t>
         </is>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I30">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Big Meadow Creek 01</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Big Meadow Creek</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1519,45 +1605,48 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_steelhead</t>
         </is>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+      <c r="I31">
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Entiat River Mills 05</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_steelhead,LF_steelhead</t>
         </is>
       </c>
       <c r="E32">
@@ -1565,37 +1654,40 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I32">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Salmon 16-11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_steelhead,LF_steelhead</t>
         </is>
       </c>
       <c r="E33">
@@ -1603,37 +1695,40 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+      <c r="I33">
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Salmon 16-6</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_steelhead,LF_steelhead</t>
         </is>
       </c>
       <c r="E34">
@@ -1641,37 +1736,40 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing</t>
+          <t>Summer Rearing</t>
         </is>
       </c>
       <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+      <c r="I34">
         <v>2</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Habitat Protection</t>
-        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 10</t>
+          <t>Salmon 16-9</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_steelhead,LF_steelhead</t>
         </is>
       </c>
       <c r="E35">
@@ -1679,37 +1777,40 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I35">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 12</t>
+          <t>Tonasket 16-2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Tonasket Creek DS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_steelhead,LF_steelhead</t>
         </is>
       </c>
       <c r="E36">
@@ -1717,121 +1818,130 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I36">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 13</t>
+          <t>Twisp River Upper 02</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Upper Twisp River</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_bull_trout</t>
         </is>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+      <c r="I37">
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 14</t>
+          <t>Twisp River Upper 03</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Upper Twisp River</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_bull_trout</t>
         </is>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+      <c r="I38">
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Chewuch River Pearrygin 01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>LF_spring_chinook</t>
         </is>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G39">
@@ -1839,37 +1949,40 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I39">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>White River Lower 05</t>
+          <t>Chewuch River Pearrygin 02</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Lower White River</t>
+          <t>Chewuch River-Pearrygin Creek</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_bull_trout</t>
+          <t>LF_spring_chinook</t>
         </is>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G40">
@@ -1877,8 +1990,11 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+      <c r="I40">
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1915,14 +2031,17 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I41">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 07</t>
+          <t>Chiwawa River Lower 01</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1953,33 +2072,36 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I42">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Entiat River Potato 01</t>
+          <t>Chiwawa River Lower 02</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>LF_spring_chinook</t>
         </is>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1991,138 +2113,150 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I43">
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Entiat River Potato 03</t>
+          <t>Chiwawa River Lower 03</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>LF_spring_chinook</t>
         </is>
       </c>
       <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I44">
         <v>2</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Habitat Protection</t>
-        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Entiat River Potato 06</t>
+          <t>Chiwawa River Lower 04</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>LF_spring_chinook</t>
         </is>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Summer Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+      <c r="I45">
         <v>3</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Habitat Protection</t>
-        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Chiwawa River Lower 05</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>LF_spring_chinook</t>
         </is>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+      <c r="I46">
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Chiwawa River Lower 06</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2135,32 +2269,35 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+      <c r="I47">
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Chiwawa River Lower 07</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Chiwawa River</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2173,32 +2310,35 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+      <c r="I48">
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Methow River Thompson 03</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2219,33 +2359,33 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Methow River Thompson 05</t>
+          <t>Entiat River Preston 01</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>LF_spring_chinook</t>
         </is>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2257,33 +2397,33 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Methow River Thompson 06</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>LF_spring_chinook</t>
         </is>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2295,75 +2435,81 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I51">
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Methow River Thompson 07</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>LF_spring_chinook</t>
         </is>
       </c>
       <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I52">
         <v>2</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Winter Rearing,Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Habitat Protection</t>
-        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 06</t>
+          <t>Methow River Thompson 03</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
+          <t>LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G53">
@@ -2371,37 +2517,40 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I53">
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Entiat River Lake 04</t>
+          <t>Methow River Thompson 05</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Entiat River-Lake Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
+          <t>LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G54">
@@ -2409,37 +2558,40 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I54">
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 09</t>
+          <t>Methow River Thompson 06</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Winter Rearing</t>
         </is>
       </c>
       <c r="G55">
@@ -2447,33 +2599,36 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I55">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Entiat River Mills 02</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2485,33 +2640,36 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I56">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Entiat River Mills 03</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2523,33 +2681,36 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I57">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Entiat River Mills 04</t>
+          <t>Nason Creek Lower 06</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2561,33 +2722,36 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I58">
+        <v>3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Entiat River Mills 05</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2599,33 +2763,36 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I59">
+        <v>3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Entiat River Mills 06</t>
+          <t>Nason Creek Lower 15</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2637,14 +2804,17 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I60">
+        <v>3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Entiat River Mills 07</t>
+          <t>Entiat River Mills 02</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2675,14 +2845,17 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I61">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Entiat River Mills 08</t>
+          <t>Entiat River Mills 03</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2713,24 +2886,27 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I62">
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Entiat River Mills 04</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2751,24 +2927,27 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I63">
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Entiat River Mills 06</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2789,14 +2968,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Twisp River Lower 04</t>
+          <t>Twisp River Lower 07</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2827,14 +3006,14 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Twisp River Lower 05</t>
+          <t>Twisp River Lower 08</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2865,14 +3044,14 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Twisp River Lower 10</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2903,14 +3082,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Twisp River Lower 11</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2941,24 +3120,24 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Antoine 16-1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2971,16 +3150,1019 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Habitat Protection</t>
-        </is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Antoine 16-2</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Antoine Creek-Lower</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Antoine 16-3</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Antoine Creek-Lower</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G71">
+        <v>4</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Antoine 16-5</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Antoine Creek-Lower</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G72">
+        <v>4</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Antoine 16-6</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Antoine Creek-Lower</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G73">
+        <v>4</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Bonaparte 16-1</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Bonaparte Creek-Lower DS</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G74">
+        <v>4</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Loup Loup 16-1</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Loup Loup Creek-Lower DS</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Loup Loup 16-2</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Loup Loup Creek-Lower DS</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Loup Loup 16-3</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Loup Loup Creek-Lower DS</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G77">
+        <v>4</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Salmon 16-10</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G78">
+        <v>4</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+      <c r="I78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Salmon 16-12</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Salmon 16-2</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G80">
+        <v>4</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Salmon 16-4</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Salmon 16-8</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G82">
+        <v>4</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Similkameen 16-2</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Similkameen River</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Similkameen 16-3</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Similkameen River</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G84">
+        <v>4</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Similkameen 16-6</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Similkameen River</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="G85">
+        <v>4</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Omak 16-2</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Omak 16-3</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Omak 16-5</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Omak 16-1</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Omak 16-6</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Omak 16-7</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Omak 16-8</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Omak 16-9</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Omak Creek-Lower US</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Salmon 16-3</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Salmon 16-7</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
+      </c>
+      <c r="I95">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Reach_Actions_Protection.xlsx
+++ b/Output/Reach_Actions_Protection.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,32 +375,62 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Pathway</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Number_of_Pathways</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Spring_Chinook_Pathways</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Steelhead_Pathways</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Bull_Trout_Pathways</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Life_Stages</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Number_of_Life_Stages</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Spring_Chinook_Life_Stages</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Steelhead_Life_Stages</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Bull_Trout_Life_Stages</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Action</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Reach_Rank</t>
         </is>
       </c>
     </row>
@@ -422,27 +452,59 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>HQ_spring_chinook</t>
         </is>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G2">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
-      </c>
-      <c r="I2">
-        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -463,27 +525,59 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>HQ_spring_chinook</t>
         </is>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K3">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
-      </c>
-      <c r="I3">
-        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -504,27 +598,59 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
-        </is>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G4">
-        <v>0</v>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
-      </c>
-      <c r="I4">
-        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -545,27 +671,59 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
-        </is>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G5">
-        <v>0</v>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
-      </c>
-      <c r="I5">
-        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -586,27 +744,59 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
-        </is>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G6">
-        <v>0</v>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
-      </c>
-      <c r="I6">
-        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -627,27 +817,59 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
-        </is>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G7">
-        <v>0</v>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Fry</t>
+        </is>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Fry</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
-      </c>
-      <c r="I7">
-        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -668,27 +890,59 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
-        </is>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G8">
-        <v>0</v>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
-      </c>
-      <c r="I8">
-        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -709,27 +963,59 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
-        </is>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G9">
-        <v>0</v>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
-      </c>
-      <c r="I9">
-        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -750,27 +1036,59 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
-        </is>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G10">
-        <v>0</v>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
-      </c>
-      <c r="I10">
-        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -791,27 +1109,59 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>4</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G11">
-        <v>1</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>HQ_steelhead,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
-      </c>
-      <c r="I11">
-        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -832,27 +1182,59 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>4</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G12">
-        <v>1</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>HQ_steelhead,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
-      </c>
-      <c r="I12">
-        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -873,27 +1255,59 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G13">
-        <v>1</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>HQ_steelhead,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>Land Management for Protection</t>
         </is>
-      </c>
-      <c r="I13">
-        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -914,27 +1328,59 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>HQ_spring_chinook,LF_spring_chinook</t>
         </is>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G14">
-        <v>1</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
-      </c>
-      <c r="I14">
-        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -955,27 +1401,59 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>HQ_spring_chinook,LF_spring_chinook</t>
         </is>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G15">
-        <v>1</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
-      </c>
-      <c r="I15">
-        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -996,33 +1474,65 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>HQ_spring_chinook</t>
         </is>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G16">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K16">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
-      </c>
-      <c r="I16">
-        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Methow River Fawn 02</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1037,38 +1547,70 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>HQ_spring_chinook,HQ_steelhead</t>
         </is>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G17">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>HQ_steelhead</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K17">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
-      </c>
-      <c r="I17">
-        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Methow River Rattlesnake 01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Rattlesnake Creek</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1078,33 +1620,65 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
-        </is>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G18">
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook</t>
+        </is>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K18">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
         <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
-      </c>
-      <c r="I18">
-        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 01</t>
+          <t>Methow River Rattlesnake 05</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1119,33 +1693,65 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>HQ_spring_chinook</t>
         </is>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G19">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K19">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-      <c r="I19">
-        <v>1</v>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 05</t>
+          <t>Methow River Rattlesnake 06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1160,38 +1766,70 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>HQ_spring_chinook</t>
         </is>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G20">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K20">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
         <is>
           <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
-      </c>
-      <c r="I20">
-        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Methow River Rattlesnake 06</t>
+          <t>Methow River Thompson 07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Methow River-Rattlesnake Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1201,33 +1839,65 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook</t>
-        </is>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G21">
-        <v>0</v>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
-        </is>
-      </c>
-      <c r="I21">
-        <v>3</v>
+          <t>HQ_steelhead</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Methow River Thompson 07</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1242,74 +1912,138 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G22">
-        <v>1</v>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook</t>
+        </is>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>HQ_steelhead</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
-      </c>
-      <c r="I22">
-        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methow River Thompson 08</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
-        </is>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G23">
-        <v>0</v>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>HQ_steelhead,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
+        </is>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
-      </c>
-      <c r="I23">
-        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1324,33 +2058,65 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>4</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>HQ_steelhead,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation</t>
+        </is>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
         <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
-      </c>
-      <c r="I24">
-        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1365,74 +2131,138 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>4</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>HQ_steelhead,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
         <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
-      </c>
-      <c r="I25">
-        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G26">
-        <v>1</v>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook</t>
+        </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>HQ_steelhead,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
-      </c>
-      <c r="I26">
-        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1447,21 +2277,56 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
-        </is>
-      </c>
-      <c r="E27">
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>HQ_steelhead,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K27">
         <v>2</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
@@ -1470,7 +2335,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1485,76 +2350,143 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
-        </is>
-      </c>
-      <c r="E28">
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>HQ_steelhead,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K28">
         <v>2</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>White River Lower 08</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower White River</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
-        </is>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G29">
-        <v>0</v>
+          <t>Spring Chinook,Bull Trout</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook,HQ_bull_trout</t>
+        </is>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>HQ_spring_chinook,LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
-        </is>
-      </c>
-      <c r="I29">
-        <v>3</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>HQ_bull_trout</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>White River Lower 08</t>
+          <t>Big Meadow Creek 01</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Lower White River</t>
+          <t>Big Meadow Creek</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1564,115 +2496,211 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_bull_trout</t>
-        </is>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G30">
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>HQ_steelhead</t>
+        </is>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>HQ_steelhead</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="K30">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-      <c r="I30">
-        <v>3</v>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Big Meadow Creek 01</t>
+          <t>Salmon 16-11</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Big Meadow Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HQ_steelhead</t>
-        </is>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G31">
-        <v>0</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>HQ_steelhead,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
+          <t>HQ_steelhead,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
-      </c>
-      <c r="I31">
-        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Entiat River Mills 05</t>
+          <t>Salmon 16-6</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>HQ_steelhead,LF_steelhead</t>
         </is>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>2</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G32">
-        <v>1</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-      <c r="I32">
-        <v>1</v>
+          <t>HQ_steelhead,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Salmon 16-11</t>
+          <t>Salmon 16-9</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1687,38 +2715,70 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>HQ_steelhead,LF_steelhead</t>
         </is>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>2</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G33">
-        <v>1</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
-        </is>
-      </c>
-      <c r="I33">
-        <v>3</v>
+          <t>HQ_steelhead,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Salmon 16-6</t>
+          <t>Tonasket 16-2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Tonasket Creek DS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1728,366 +2788,654 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>HQ_steelhead,LF_steelhead</t>
         </is>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>2</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G34">
-        <v>1</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-      <c r="I34">
-        <v>2</v>
+          <t>HQ_steelhead,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Salmon 16-9</t>
+          <t>Twisp River Upper 02</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Upper Twisp River</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HQ_steelhead,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E35">
+          <t>Bull Trout</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>HQ_bull_trout,LF_bull_trout</t>
+        </is>
+      </c>
+      <c r="F35">
         <v>2</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G35">
-        <v>4</v>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-      <c r="I35">
-        <v>2</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>HQ_bull_trout,LF_bull_trout</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tonasket 16-2</t>
+          <t>Twisp River Upper 03</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tonasket Creek DS</t>
+          <t>Upper Twisp River</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HQ_steelhead,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E36">
+          <t>Bull Trout</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>HQ_bull_trout,LF_bull_trout</t>
+        </is>
+      </c>
+      <c r="F36">
         <v>2</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G36">
-        <v>4</v>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-      <c r="I36">
-        <v>1</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>HQ_bull_trout,LF_bull_trout</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Twisp River Upper 02</t>
+          <t>Entiat River Lake 06</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Upper Twisp River</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>HQ_bull_trout</t>
-        </is>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G37">
-        <v>0</v>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook</t>
+        </is>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
-      </c>
-      <c r="I37">
-        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Twisp River Upper 03</t>
+          <t>Entiat River Lake 07</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Upper Twisp River</t>
+          <t>Entiat River-Lake Creek</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HQ_bull_trout</t>
-        </is>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G38">
-        <v>0</v>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook</t>
+        </is>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
           <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
-      </c>
-      <c r="I38">
-        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 01</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>LF_spring_chinook</t>
         </is>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
-      </c>
-      <c r="I39">
-        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 02</t>
+          <t>Entiat River Preston 01</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>LF_spring_chinook</t>
         </is>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G40">
-        <v>1</v>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-      <c r="I40">
-        <v>3</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Chewuch River Pearrygin 03</t>
+          <t>Entiat River Preston 03</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Chewuch River-Pearrygin Creek</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>LF_spring_chinook</t>
         </is>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G41">
-        <v>1</v>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Fry,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
-      </c>
-      <c r="I41">
-        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 01</t>
+          <t>Entiat River Preston 04</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Entiat River-Preston Creek</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>LF_spring_chinook</t>
         </is>
       </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G42">
-        <v>1</v>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Fry</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
-      </c>
-      <c r="I42">
-        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 02</t>
+          <t>Little Wenatchee River Lower 05</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2097,38 +3445,70 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>LF_spring_chinook</t>
         </is>
       </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G43">
-        <v>1</v>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-      <c r="I43">
-        <v>3</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 03</t>
+          <t>Little Wenatchee River Lower 06</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Lower Little Wenatchee River</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2138,79 +3518,143 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>LF_spring_chinook</t>
         </is>
       </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G44">
-        <v>1</v>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-      <c r="I44">
-        <v>2</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 04</t>
+          <t>Methow River Thompson 09</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>Spring Chinook</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>LF_spring_chinook</t>
         </is>
       </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G45">
-        <v>1</v>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook</t>
+        </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
-        </is>
-      </c>
-      <c r="I45">
-        <v>3</v>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Winter Rearing,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 05</t>
+          <t>Nason Creek Lower 04</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2220,38 +3664,70 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>LF_spring_chinook</t>
         </is>
       </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
-        </is>
-      </c>
-      <c r="I46">
-        <v>3</v>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 06</t>
+          <t>Nason Creek Lower 05</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2261,38 +3737,70 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>LF_spring_chinook</t>
         </is>
       </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
-        </is>
-      </c>
-      <c r="I47">
-        <v>3</v>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Chiwawa River Lower 07</t>
+          <t>Nason Creek Lower 07</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Lower Chiwawa River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2302,38 +3810,70 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>LF_spring_chinook,LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>LF_spring_chinook</t>
         </is>
       </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
-        </is>
-      </c>
-      <c r="I48">
-        <v>3</v>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Mills 03</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2343,21 +3883,56 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49" t="inlineStr">
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
         <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
@@ -2366,12 +3941,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Entiat River Preston 01</t>
+          <t>Entiat River Mills 06</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2381,21 +3956,56 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
-        </is>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="inlineStr">
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>Winter Rearing</t>
         </is>
       </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
         <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
@@ -2404,607 +4014,1093 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Entiat River Preston 03</t>
+          <t>Peshastin Creek Lower 06</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Lower Peshastin Creek</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
-        </is>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G51">
-        <v>1</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
-      </c>
-      <c r="I51">
-        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Entiat River Preston 04</t>
+          <t>Antoine 16-1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Entiat River-Preston Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LF_spring_chinook</t>
-        </is>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G52">
-        <v>1</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
-      </c>
-      <c r="I52">
-        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Methow River Thompson 03</t>
+          <t>Antoine 16-2</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E53">
-        <v>2</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G53">
-        <v>1</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-      <c r="I53">
-        <v>3</v>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K53">
+        <v>4</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Methow River Thompson 05</t>
+          <t>Antoine 16-3</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G54">
-        <v>1</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
-      </c>
-      <c r="I54">
-        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Methow River Thompson 06</t>
+          <t>Antoine 16-5</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G55">
-        <v>1</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-      <c r="I55">
-        <v>1</v>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 04</t>
+          <t>Antoine 16-6</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Antoine Creek-Lower</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E56">
-        <v>2</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G56">
-        <v>1</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-      <c r="I56">
-        <v>1</v>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 05</t>
+          <t>Bonaparte 16-1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Bonaparte Creek-Lower DS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G57">
-        <v>1</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K57">
+        <v>4</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
-      </c>
-      <c r="I57">
-        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 06</t>
+          <t>Loup Loup 16-1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E58">
-        <v>2</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G58">
-        <v>1</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-      <c r="I58">
-        <v>3</v>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K58">
+        <v>4</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 07</t>
+          <t>Loup Loup 16-2</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G59">
-        <v>1</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-      <c r="I59">
-        <v>3</v>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 15</t>
+          <t>Loup Loup 16-3</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Loup Loup Creek-Lower DS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G60">
-        <v>1</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-      <c r="I60">
-        <v>3</v>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K60">
+        <v>4</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Entiat River Mills 02</t>
+          <t>Salmon 16-10</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G61">
-        <v>1</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-      <c r="I61">
-        <v>1</v>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K61">
+        <v>4</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Entiat River Mills 03</t>
+          <t>Salmon 16-12</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G62">
-        <v>1</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-      <c r="I62">
-        <v>3</v>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K62">
+        <v>4</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Entiat River Mills 04</t>
+          <t>Salmon 16-2</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G63">
-        <v>1</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-      <c r="I63">
-        <v>2</v>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K63">
+        <v>4</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Entiat River Mills 06</t>
+          <t>Salmon 16-4</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G64">
-        <v>1</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Twisp River Lower 07</t>
+          <t>Salmon 16-8</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G65">
-        <v>1</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H65" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K65">
+        <v>4</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
         <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
@@ -3013,36 +5109,71 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Twisp River Lower 08</t>
+          <t>Similkameen 16-2</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G66">
-        <v>1</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H66" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K66">
+        <v>4</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
         <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
@@ -3051,36 +5182,71 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Twisp River Lower 10</t>
+          <t>Similkameen 16-3</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G67">
-        <v>1</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H67" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K67">
+        <v>4</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
         <is>
           <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
         </is>
@@ -3089,50 +5255,85 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Twisp River Lower 11</t>
+          <t>Similkameen 16-6</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Similkameen River</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G68">
-        <v>1</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="K68">
+        <v>4</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Antoine 16-1</t>
+          <t>Omak 16-2</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3142,35 +5343,70 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G69">
-        <v>4</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Antoine 16-2</t>
+          <t>Omak 16-3</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3180,21 +5416,56 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G70">
-        <v>4</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H70" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
         <is>
           <t>Land Management for Protection</t>
         </is>
@@ -3203,12 +5474,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Antoine 16-3</t>
+          <t>Omak 16-5</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3218,35 +5489,70 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G71">
-        <v>4</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Holding and Maturation,Summer Rearing</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Antoine 16-5</t>
+          <t>Omak 16-1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3256,21 +5562,56 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G72">
-        <v>4</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H72" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
         <is>
           <t>Land Management for Protection</t>
         </is>
@@ -3279,12 +5620,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Antoine 16-6</t>
+          <t>Omak 16-6</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Antoine Creek-Lower</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3294,21 +5635,56 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G73">
-        <v>4</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H73" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
         <is>
           <t>Land Management for Protection</t>
         </is>
@@ -3317,12 +5693,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Bonaparte 16-1</t>
+          <t>Omak 16-7</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Bonaparte Creek-Lower DS</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3332,35 +5708,70 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G74">
-        <v>4</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Land Management for Protection</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Loup Loup 16-1</t>
+          <t>Omak 16-8</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3370,21 +5781,56 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G75">
-        <v>4</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H75" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
         <is>
           <t>Land Management for Protection</t>
         </is>
@@ -3393,12 +5839,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Loup Loup 16-2</t>
+          <t>Omak 16-9</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Omak Creek-Lower US</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3408,21 +5854,56 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G76">
-        <v>4</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H76" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
         <is>
           <t>Land Management for Protection</t>
         </is>
@@ -3431,12 +5912,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Loup Loup 16-3</t>
+          <t>Salmon 16-3</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Loup Loup Creek-Lower DS</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3446,21 +5927,56 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G77">
-        <v>4</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H77" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
         <is>
           <t>Land Management for Protection</t>
         </is>
@@ -3469,7 +5985,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Salmon 16-10</t>
+          <t>Salmon 16-7</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3484,685 +6000,132 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G78">
-        <v>4</v>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
-        </is>
-      </c>
-      <c r="I78">
-        <v>3</v>
+          <t>LF_steelhead</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Summer Rearing</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Salmon 16-12</t>
+          <t>Twisp River Upper 01</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Upper Twisp River</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G79">
-        <v>4</v>
+          <t>Bull Trout</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>LF_bull_trout</t>
+        </is>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>LF_bull_trout</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
           <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
         </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Salmon 16-2</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G80">
-        <v>4</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Salmon 16-4</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G81">
-        <v>4</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-      <c r="I81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Salmon 16-8</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G82">
-        <v>4</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-      <c r="I82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Similkameen 16-2</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Similkameen River</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G83">
-        <v>4</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Similkameen 16-3</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Similkameen River</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G84">
-        <v>4</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-      <c r="I84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Similkameen 16-6</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Similkameen River</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Fry,Holding and Maturation,Summer Rearing,Winter Rearing</t>
-        </is>
-      </c>
-      <c r="G85">
-        <v>4</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Omak 16-2</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Holding and Maturation,Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G86">
-        <v>2</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Omak 16-3</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Holding and Maturation,Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G87">
-        <v>2</v>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Omak 16-5</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Holding and Maturation,Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G88">
-        <v>2</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Omak 16-1</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Omak 16-6</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Omak 16-7</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Omak 16-8</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Omak 16-9</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Omak Creek-Lower US</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Salmon 16-3</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Land Management for Protection</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Salmon 16-7</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Okanogan</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>LF_steelhead</t>
-        </is>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
-      </c>
-      <c r="I95">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Reach_Actions_Protection.xlsx
+++ b/Output/Reach_Actions_Protection.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t xml:space="preserve">ReachName</t>
   </si>
@@ -59,52 +59,307 @@
     <t xml:space="preserve">Action</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiwawa River Upper 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Chiwawa River</t>
+    <t xml:space="preserve">Chewuch River Doe 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River-Doe Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Chinook,Steelhead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_spring_chinook,HQ_steelhead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_spring_chinook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_steelhead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Protection (e.g. conservation easement and/or property acquisition)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Doe 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Pearrygin 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River-Pearrygin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_spring_chinook,HQ_steelhead,LF_spring_chinook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_spring_chinook,LF_spring_chinook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing,Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Lake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Chinook,Bull Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_spring_chinook,LF_spring_chinook,HQ_bull_trout,LF_bull_trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_bull_trout,LF_bull_trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fry,Summer Rearing,Spawning and Incubation,BT Natal Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fry,Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fry,Spawning and Incubation,BT Natal Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fry,Summer Rearing,Spawning and Incubation,BT Natal Rearing,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Potato Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_steelhead,LF_steelhead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing,Fry,Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Management for Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Preston Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Chinook,Steelhead,Bull Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead,HQ_bull_trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_bull_trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hancock Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Fawn Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Little Wenatchee River</t>
   </si>
   <si>
     <t xml:space="preserve">Wenatchee</t>
   </si>
   <si>
-    <t xml:space="preserve">Spring Chinook,Bull Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HQ_spring_chinook,HQ_bull_trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HQ_spring_chinook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HQ_bull_trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Protection (e.g. conservation easement and/or property acquisition)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chumstick Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chumstick Creek</t>
+    <t xml:space="preserve">Spring Chinook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Fawn 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Thompson Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Nason Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing,Summer Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_spring_chinook,HQ_steelhead,LF_steelhead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_spring_chinook,HQ_steelhead,HQ_bull_trout,LF_bull_trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower White River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_spring_chinook,LF_spring_chinook,HQ_bull_trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_spring_chinook,HQ_steelhead,HQ_bull_trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Meadow Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Meadow Creek</t>
   </si>
   <si>
     <t xml:space="preserve">Steelhead</t>
   </si>
   <si>
-    <t xml:space="preserve">HQ_steelhead,LF_steelhead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Management for Protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chumstick Creek 04</t>
+    <t xml:space="preserve">Mad River Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Mad River</t>
   </si>
   <si>
     <t xml:space="preserve">Salmon 16-11</t>
@@ -128,49 +383,46 @@
     <t xml:space="preserve">Salmon 16-9</t>
   </si>
   <si>
-    <t xml:space="preserve">Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tonasket 16-2</t>
   </si>
   <si>
     <t xml:space="preserve">Tonasket Creek DS</t>
   </si>
   <si>
-    <t xml:space="preserve">HQ_steelhead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chikamin Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chikamin Creek</t>
+    <t xml:space="preserve">Twisp River Headwaters 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Headwaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steelhead,Bull Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_steelhead,HQ_bull_trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_steelhead,HQ_bull_trout,LF_bull_trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile 16-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile Creek DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 09</t>
   </si>
   <si>
     <t xml:space="preserve">Bull Trout</t>
   </si>
   <si>
-    <t xml:space="preserve">HQ_bull_trout,LF_bull_trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chikamin Creek 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drake Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Lost River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Giant Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower White River</t>
+    <t xml:space="preserve">North Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 06</t>
   </si>
   <si>
     <t xml:space="preserve">LF_spring_chinook,LF_bull_trout</t>
@@ -182,25 +434,100 @@
     <t xml:space="preserve">LF_bull_trout</t>
   </si>
   <si>
-    <t xml:space="preserve">Chumstick Creek 01</t>
+    <t xml:space="preserve">Entiat River Lake 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LF_spring_chinook,LF_steelhead</t>
   </si>
   <si>
     <t xml:space="preserve">LF_steelhead</t>
   </si>
   <si>
-    <t xml:space="preserve">Chumstick Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chumstick Creek 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chumstick Creek 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chumstick Creek 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chumstick Creek 08</t>
+    <t xml:space="preserve">Entiat River Preston 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing,Fry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver Creek Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Mills 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Mills Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Mills 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peshastin Creek Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Peshastin Creek</t>
   </si>
   <si>
     <t xml:space="preserve">Salmon 16-10</t>
@@ -224,13 +551,10 @@
     <t xml:space="preserve">Salmon 16-8</t>
   </si>
   <si>
-    <t xml:space="preserve">Cougar Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Mad River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat</t>
+    <t xml:space="preserve">Entiat River Lake 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 01</t>
   </si>
 </sst>
 </file>
@@ -638,19 +962,19 @@
         <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -661,93 +985,93 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="n">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -758,40 +1082,40 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O5" t="s">
         <v>23</v>
@@ -799,281 +1123,281 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
       <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
         <v>44</v>
       </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" t="s">
-        <v>28</v>
-      </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" t="s">
-        <v>28</v>
-      </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="s">
+      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
         <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" t="s">
-        <v>21</v>
       </c>
       <c r="O11" t="s">
         <v>23</v>
@@ -1081,46 +1405,46 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
         <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" t="s">
-        <v>21</v>
       </c>
       <c r="O12" t="s">
         <v>23</v>
@@ -1128,143 +1452,143 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
         <v>51</v>
       </c>
-      <c r="B13" t="s">
+      <c r="K13" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" t="s">
-        <v>28</v>
-      </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="M14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N14" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="O14" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="M15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -1272,46 +1596,46 @@
         <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H16" t="s">
         <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="M16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -1319,468 +1643,3194 @@
         <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
         <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="M17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O17" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H18" t="s">
         <v>57</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="M18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H19" t="s">
         <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="J19" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="M19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
         <v>21</v>
       </c>
-      <c r="H20" t="s">
-        <v>57</v>
-      </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M20" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M21" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="N21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O21" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
         <v>21</v>
       </c>
-      <c r="H22" t="s">
-        <v>57</v>
-      </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M22" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
         <v>21</v>
       </c>
-      <c r="H23" t="s">
-        <v>57</v>
-      </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M23" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
         <v>21</v>
       </c>
-      <c r="H24" t="s">
-        <v>57</v>
-      </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M24" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O24" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
         <v>21</v>
       </c>
-      <c r="H25" t="s">
-        <v>57</v>
-      </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M25" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O25" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H26" t="s">
         <v>21</v>
       </c>
       <c r="I26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4</v>
+      </c>
+      <c r="L28" t="s">
+        <v>84</v>
+      </c>
+      <c r="M28" t="s">
+        <v>85</v>
+      </c>
+      <c r="N28" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" t="s">
+        <v>87</v>
+      </c>
+      <c r="M29" t="s">
+        <v>85</v>
+      </c>
+      <c r="N29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" t="s">
+        <v>87</v>
+      </c>
+      <c r="M30" t="s">
+        <v>85</v>
+      </c>
+      <c r="N30" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" t="s">
+        <v>29</v>
+      </c>
+      <c r="N33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" t="s">
+        <v>97</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" t="s">
+        <v>97</v>
+      </c>
+      <c r="O34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s">
+        <v>97</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" t="s">
+        <v>22</v>
+      </c>
+      <c r="N35" t="s">
+        <v>97</v>
+      </c>
+      <c r="O35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" t="s">
+        <v>101</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3</v>
+      </c>
+      <c r="L36" t="s">
+        <v>101</v>
+      </c>
+      <c r="M36" t="s">
+        <v>85</v>
+      </c>
+      <c r="N36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" t="s">
+        <v>103</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2</v>
+      </c>
+      <c r="L37" t="s">
+        <v>103</v>
+      </c>
+      <c r="M37" t="s">
+        <v>85</v>
+      </c>
+      <c r="N37" t="s">
+        <v>22</v>
+      </c>
+      <c r="O37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38" t="s">
+        <v>97</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>97</v>
+      </c>
+      <c r="M38" t="s">
+        <v>22</v>
+      </c>
+      <c r="N38" t="s">
+        <v>22</v>
+      </c>
+      <c r="O38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" t="s">
+        <v>22</v>
+      </c>
+      <c r="N39" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+      <c r="J40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40" t="s">
+        <v>22</v>
+      </c>
+      <c r="O40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41" t="s">
+        <v>22</v>
+      </c>
+      <c r="O41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" t="s">
+        <v>57</v>
+      </c>
+      <c r="I42" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2</v>
+      </c>
+      <c r="L42" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" t="s">
+        <v>22</v>
+      </c>
+      <c r="O42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" t="s">
+        <v>119</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" t="s">
+        <v>119</v>
+      </c>
+      <c r="N43" t="s">
+        <v>22</v>
+      </c>
+      <c r="O43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" t="s">
+        <v>121</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3</v>
+      </c>
+      <c r="L44" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" t="s">
+        <v>121</v>
+      </c>
+      <c r="N44" t="s">
+        <v>22</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" t="s">
+        <v>119</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>22</v>
+      </c>
+      <c r="M45" t="s">
+        <v>119</v>
+      </c>
+      <c r="N45" t="s">
+        <v>22</v>
+      </c>
+      <c r="O45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" t="s">
+        <v>22</v>
+      </c>
+      <c r="N46" t="s">
+        <v>22</v>
+      </c>
+      <c r="O46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" t="s">
+        <v>67</v>
+      </c>
+      <c r="J47" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M47" t="s">
+        <v>22</v>
+      </c>
+      <c r="N47" t="s">
+        <v>22</v>
+      </c>
+      <c r="O47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" t="s">
+        <v>41</v>
+      </c>
+      <c r="J48" t="s">
+        <v>97</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" t="s">
+        <v>97</v>
+      </c>
+      <c r="O48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>22</v>
+      </c>
+      <c r="M49" t="s">
+        <v>22</v>
+      </c>
+      <c r="N49" t="s">
+        <v>22</v>
+      </c>
+      <c r="O49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s">
+        <v>52</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3</v>
+      </c>
+      <c r="L50" t="s">
+        <v>22</v>
+      </c>
+      <c r="M50" t="s">
+        <v>22</v>
+      </c>
+      <c r="N50" t="s">
+        <v>52</v>
+      </c>
+      <c r="O50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" t="s">
+        <v>67</v>
+      </c>
+      <c r="J51" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>22</v>
+      </c>
+      <c r="M51" t="s">
+        <v>22</v>
+      </c>
+      <c r="N51" t="s">
+        <v>22</v>
+      </c>
+      <c r="O51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>138</v>
+      </c>
+      <c r="H52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" t="s">
+        <v>139</v>
+      </c>
+      <c r="J52" t="s">
+        <v>42</v>
+      </c>
+      <c r="K52" t="n">
+        <v>4</v>
+      </c>
+      <c r="L52" t="s">
+        <v>43</v>
+      </c>
+      <c r="M52" t="s">
+        <v>22</v>
+      </c>
+      <c r="N52" t="s">
+        <v>44</v>
+      </c>
+      <c r="O52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" t="s">
+        <v>139</v>
+      </c>
+      <c r="J53" t="s">
+        <v>51</v>
+      </c>
+      <c r="K53" t="n">
+        <v>5</v>
+      </c>
+      <c r="L53" t="s">
+        <v>43</v>
+      </c>
+      <c r="M53" t="s">
+        <v>22</v>
+      </c>
+      <c r="N53" t="s">
+        <v>52</v>
+      </c>
+      <c r="O53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" t="s">
         <v>55</v>
       </c>
-      <c r="J26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
-        <v>21</v>
-      </c>
-      <c r="M26" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" t="s">
-        <v>28</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>138</v>
+      </c>
+      <c r="H54" t="s">
+        <v>143</v>
+      </c>
+      <c r="I54" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" t="s">
+        <v>58</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3</v>
+      </c>
+      <c r="L54" t="s">
+        <v>58</v>
+      </c>
+      <c r="M54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N54" t="s">
+        <v>22</v>
+      </c>
+      <c r="O54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>138</v>
+      </c>
+      <c r="H55" t="s">
+        <v>143</v>
+      </c>
+      <c r="I55" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" t="s">
+        <v>145</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2</v>
+      </c>
+      <c r="L55" t="s">
+        <v>145</v>
+      </c>
+      <c r="M55" t="s">
+        <v>85</v>
+      </c>
+      <c r="N55" t="s">
+        <v>22</v>
+      </c>
+      <c r="O55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>138</v>
+      </c>
+      <c r="H56" t="s">
+        <v>143</v>
+      </c>
+      <c r="I56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" t="s">
+        <v>58</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3</v>
+      </c>
+      <c r="L56" t="s">
+        <v>58</v>
+      </c>
+      <c r="M56" t="s">
+        <v>29</v>
+      </c>
+      <c r="N56" t="s">
+        <v>22</v>
+      </c>
+      <c r="O56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>147</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>138</v>
+      </c>
+      <c r="H57" t="s">
+        <v>143</v>
+      </c>
+      <c r="I57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" t="s">
+        <v>145</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2</v>
+      </c>
+      <c r="L57" t="s">
+        <v>145</v>
+      </c>
+      <c r="M57" t="s">
+        <v>85</v>
+      </c>
+      <c r="N57" t="s">
+        <v>22</v>
+      </c>
+      <c r="O57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" t="s">
+        <v>138</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>138</v>
+      </c>
+      <c r="H58" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" t="s">
+        <v>97</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>97</v>
+      </c>
+      <c r="M58" t="s">
+        <v>22</v>
+      </c>
+      <c r="N58" t="s">
+        <v>22</v>
+      </c>
+      <c r="O58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>138</v>
+      </c>
+      <c r="H59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" t="s">
+        <v>97</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
+        <v>97</v>
+      </c>
+      <c r="M59" t="s">
+        <v>22</v>
+      </c>
+      <c r="N59" t="s">
+        <v>22</v>
+      </c>
+      <c r="O59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>138</v>
+      </c>
+      <c r="H60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" t="s">
+        <v>85</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="s">
+        <v>85</v>
+      </c>
+      <c r="M60" t="s">
+        <v>22</v>
+      </c>
+      <c r="N60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" t="s">
+        <v>138</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>138</v>
+      </c>
+      <c r="H61" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" t="s">
+        <v>85</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
+        <v>85</v>
+      </c>
+      <c r="M61" t="s">
+        <v>22</v>
+      </c>
+      <c r="N61" t="s">
+        <v>22</v>
+      </c>
+      <c r="O61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>138</v>
+      </c>
+      <c r="H62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" t="s">
+        <v>85</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>85</v>
+      </c>
+      <c r="M62" t="s">
+        <v>22</v>
+      </c>
+      <c r="N62" t="s">
+        <v>22</v>
+      </c>
+      <c r="O62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>153</v>
+      </c>
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>138</v>
+      </c>
+      <c r="H63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" t="s">
+        <v>85</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
+        <v>85</v>
+      </c>
+      <c r="M63" t="s">
+        <v>22</v>
+      </c>
+      <c r="N63" t="s">
+        <v>22</v>
+      </c>
+      <c r="O63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>138</v>
+      </c>
+      <c r="H64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" t="s">
+        <v>85</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
+        <v>85</v>
+      </c>
+      <c r="M64" t="s">
+        <v>22</v>
+      </c>
+      <c r="N64" t="s">
+        <v>22</v>
+      </c>
+      <c r="O64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65" t="s">
+        <v>138</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>138</v>
+      </c>
+      <c r="H65" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" t="s">
+        <v>29</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2</v>
+      </c>
+      <c r="L65" t="s">
+        <v>29</v>
+      </c>
+      <c r="M65" t="s">
+        <v>22</v>
+      </c>
+      <c r="N65" t="s">
+        <v>22</v>
+      </c>
+      <c r="O65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" t="s">
+        <v>138</v>
+      </c>
+      <c r="H66" t="s">
+        <v>143</v>
+      </c>
+      <c r="I66" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" t="s">
+        <v>103</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2</v>
+      </c>
+      <c r="L66" t="s">
+        <v>103</v>
+      </c>
+      <c r="M66" t="s">
+        <v>85</v>
+      </c>
+      <c r="N66" t="s">
+        <v>22</v>
+      </c>
+      <c r="O66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" t="s">
+        <v>142</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" t="s">
+        <v>138</v>
+      </c>
+      <c r="H67" t="s">
+        <v>143</v>
+      </c>
+      <c r="I67" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" t="s">
+        <v>103</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2</v>
+      </c>
+      <c r="L67" t="s">
+        <v>103</v>
+      </c>
+      <c r="M67" t="s">
+        <v>85</v>
+      </c>
+      <c r="N67" t="s">
+        <v>22</v>
+      </c>
+      <c r="O67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>158</v>
+      </c>
+      <c r="B68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" t="s">
+        <v>142</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>138</v>
+      </c>
+      <c r="H68" t="s">
+        <v>143</v>
+      </c>
+      <c r="I68" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" t="s">
+        <v>103</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2</v>
+      </c>
+      <c r="L68" t="s">
+        <v>103</v>
+      </c>
+      <c r="M68" t="s">
+        <v>85</v>
+      </c>
+      <c r="N68" t="s">
+        <v>22</v>
+      </c>
+      <c r="O68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" t="s">
+        <v>142</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" t="s">
+        <v>138</v>
+      </c>
+      <c r="H69" t="s">
+        <v>143</v>
+      </c>
+      <c r="I69" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" t="s">
+        <v>103</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2</v>
+      </c>
+      <c r="L69" t="s">
+        <v>103</v>
+      </c>
+      <c r="M69" t="s">
+        <v>85</v>
+      </c>
+      <c r="N69" t="s">
+        <v>22</v>
+      </c>
+      <c r="O69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>160</v>
+      </c>
+      <c r="B70" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" t="s">
+        <v>142</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>138</v>
+      </c>
+      <c r="H70" t="s">
+        <v>143</v>
+      </c>
+      <c r="I70" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" t="s">
+        <v>103</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" t="s">
+        <v>103</v>
+      </c>
+      <c r="M70" t="s">
+        <v>85</v>
+      </c>
+      <c r="N70" t="s">
+        <v>22</v>
+      </c>
+      <c r="O70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" t="s">
+        <v>142</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>138</v>
+      </c>
+      <c r="H71" t="s">
+        <v>143</v>
+      </c>
+      <c r="I71" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2</v>
+      </c>
+      <c r="L71" t="s">
+        <v>103</v>
+      </c>
+      <c r="M71" t="s">
+        <v>85</v>
+      </c>
+      <c r="N71" t="s">
+        <v>22</v>
+      </c>
+      <c r="O71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" t="s">
+        <v>143</v>
+      </c>
+      <c r="I72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" t="s">
+        <v>97</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M72" t="s">
+        <v>97</v>
+      </c>
+      <c r="N72" t="s">
+        <v>22</v>
+      </c>
+      <c r="O72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" t="s">
+        <v>113</v>
+      </c>
+      <c r="E73" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" t="s">
+        <v>143</v>
+      </c>
+      <c r="I73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" t="s">
+        <v>85</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="s">
+        <v>22</v>
+      </c>
+      <c r="M73" t="s">
+        <v>85</v>
+      </c>
+      <c r="N73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" t="s">
+        <v>143</v>
+      </c>
+      <c r="I74" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" t="s">
+        <v>85</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
+        <v>22</v>
+      </c>
+      <c r="M74" t="s">
+        <v>85</v>
+      </c>
+      <c r="N74" t="s">
+        <v>22</v>
+      </c>
+      <c r="O74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" t="s">
+        <v>113</v>
+      </c>
+      <c r="E75" t="s">
+        <v>143</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" t="s">
+        <v>143</v>
+      </c>
+      <c r="I75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" t="s">
+        <v>169</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="s">
+        <v>22</v>
+      </c>
+      <c r="M75" t="s">
+        <v>169</v>
+      </c>
+      <c r="N75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" t="s">
+        <v>143</v>
+      </c>
+      <c r="I76" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" t="s">
+        <v>97</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>22</v>
+      </c>
+      <c r="M76" t="s">
+        <v>97</v>
+      </c>
+      <c r="N76" t="s">
+        <v>22</v>
+      </c>
+      <c r="O76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77" t="s">
+        <v>143</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" t="s">
+        <v>143</v>
+      </c>
+      <c r="I77" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" t="s">
+        <v>119</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>22</v>
+      </c>
+      <c r="M77" t="s">
+        <v>119</v>
+      </c>
+      <c r="N77" t="s">
+        <v>22</v>
+      </c>
+      <c r="O77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78" t="s">
+        <v>113</v>
+      </c>
+      <c r="E78" t="s">
+        <v>143</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" t="s">
+        <v>143</v>
+      </c>
+      <c r="I78" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" t="s">
+        <v>174</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2</v>
+      </c>
+      <c r="L78" t="s">
+        <v>22</v>
+      </c>
+      <c r="M78" t="s">
+        <v>174</v>
+      </c>
+      <c r="N78" t="s">
+        <v>22</v>
+      </c>
+      <c r="O78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" t="s">
+        <v>118</v>
+      </c>
+      <c r="D79" t="s">
+        <v>113</v>
+      </c>
+      <c r="E79" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" t="s">
+        <v>143</v>
+      </c>
+      <c r="I79" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" t="s">
+        <v>119</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="s">
+        <v>22</v>
+      </c>
+      <c r="M79" t="s">
+        <v>119</v>
+      </c>
+      <c r="N79" t="s">
+        <v>22</v>
+      </c>
+      <c r="O79" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" t="s">
+        <v>118</v>
+      </c>
+      <c r="D80" t="s">
+        <v>113</v>
+      </c>
+      <c r="E80" t="s">
+        <v>143</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" t="s">
+        <v>143</v>
+      </c>
+      <c r="I80" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" t="s">
+        <v>119</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="s">
+        <v>22</v>
+      </c>
+      <c r="M80" t="s">
+        <v>119</v>
+      </c>
+      <c r="N80" t="s">
+        <v>22</v>
+      </c>
+      <c r="O80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>177</v>
+      </c>
+      <c r="B81" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" t="s">
+        <v>113</v>
+      </c>
+      <c r="E81" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" t="s">
+        <v>143</v>
+      </c>
+      <c r="I81" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" t="s">
+        <v>119</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="s">
+        <v>22</v>
+      </c>
+      <c r="M81" t="s">
+        <v>119</v>
+      </c>
+      <c r="N81" t="s">
+        <v>22</v>
+      </c>
+      <c r="O81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82" t="s">
+        <v>113</v>
+      </c>
+      <c r="E82" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" t="s">
+        <v>143</v>
+      </c>
+      <c r="I82" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" t="s">
+        <v>119</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="s">
+        <v>22</v>
+      </c>
+      <c r="M82" t="s">
+        <v>119</v>
+      </c>
+      <c r="N82" t="s">
+        <v>22</v>
+      </c>
+      <c r="O82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" t="s">
+        <v>139</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" t="s">
+        <v>139</v>
+      </c>
+      <c r="J83" t="s">
+        <v>97</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>22</v>
+      </c>
+      <c r="M83" t="s">
+        <v>22</v>
+      </c>
+      <c r="N83" t="s">
+        <v>97</v>
+      </c>
+      <c r="O83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>134</v>
+      </c>
+      <c r="E84" t="s">
+        <v>139</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84" t="s">
+        <v>139</v>
+      </c>
+      <c r="J84" t="s">
+        <v>97</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="s">
+        <v>22</v>
+      </c>
+      <c r="M84" t="s">
+        <v>22</v>
+      </c>
+      <c r="N84" t="s">
+        <v>97</v>
+      </c>
+      <c r="O84" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Output/Reach_Actions_Protection.xlsx
+++ b/Output/Reach_Actions_Protection.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t xml:space="preserve">ReachName</t>
   </si>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">Action</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewuch River Doe 04</t>
+    <t xml:space="preserve">Chewuch River Doe 05</t>
   </si>
   <si>
     <t xml:space="preserve">Chewuch River-Doe Creek</t>
@@ -86,9 +86,6 @@
     <t xml:space="preserve">Land Protection (e.g. conservation easement and/or property acquisition)</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewuch River Doe 05</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chewuch River Pearrygin 08</t>
   </si>
   <si>
@@ -107,12 +104,15 @@
     <t xml:space="preserve">Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
   </si>
   <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chewuch River Thirtymile 02</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chewuch River Thirtymile 03</t>
   </si>
   <si>
@@ -122,37 +122,325 @@
     <t xml:space="preserve">Chewuch River Thirtymile 05</t>
   </si>
   <si>
+    <t xml:space="preserve">Chikamin Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Chinook,Bull Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_spring_chinook,HQ_bull_trout,LF_bull_trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_bull_trout,LF_bull_trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwawa River Middle 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Chinook,Steelhead,Bull Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_spring_chinook,HQ_steelhead,HQ_bull_trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_bull_trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Lake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_spring_chinook,LF_spring_chinook,HQ_bull_trout,LF_bull_trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fry,Summer Rearing,Spawning and Incubation,BT Natal Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fry,Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fry,Summer Rearing,Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Potato Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_steelhead,LF_steelhead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing,Fry,Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Management for Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Preston Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hancock Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Fawn Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Little Wenatchee River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Chinook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Fawn 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Thompson Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mill Creek Peshastin 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Peshastin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_spring_chinook,HQ_steelhead,LF_steelhead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Nason Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing,Summer Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_spring_chinook,HQ_steelhead,HQ_bull_trout,LF_bull_trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower White River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_spring_chinook,HQ_bull_trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_spring_chinook,LF_spring_chinook,HQ_bull_trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Meadow Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Meadow Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steelhead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Meadow Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon Creek-Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okanogan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smolt Outmigration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smolt Outmigration,Spawning and Incubation,Winter Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonasket 16-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonasket Creek DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Headwaters 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Headwaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steelhead,Bull Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_steelhead,HQ_bull_trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQ_steelhead,HQ_bull_trout,LF_bull_trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile 16-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninemile Creek DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bull Trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Creek 01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Lake 01</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River-Lake Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring Chinook,Bull Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HQ_spring_chinook,LF_spring_chinook,HQ_bull_trout,LF_bull_trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HQ_bull_trout,LF_bull_trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fry,Summer Rearing,Spawning and Incubation,BT Natal Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fry,Summer Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 04</t>
+    <t xml:space="preserve">LF_spring_chinook,LF_bull_trout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LF_spring_chinook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LF_bull_trout</t>
   </si>
   <si>
     <t xml:space="preserve">Fry,Spawning and Incubation,BT Natal Rearing</t>
@@ -161,397 +449,181 @@
     <t xml:space="preserve">Fry</t>
   </si>
   <si>
+    <t xml:space="preserve">Entiat River Lake 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fry,Summer Rearing,Spawning and Incubation,BT Natal Rearing,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LF_spring_chinook,LF_steelhead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LF_steelhead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing,Fry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaver Creek Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Mills 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Mills Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Mills 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Icicle Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icicle Creek Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Bridge Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Mad River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smolt Outmigration,Winter Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmon 16-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Lake 05</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River Lake 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fry,Summer Rearing,Spawning and Incubation,BT Natal Rearing,Adult Migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Adult Migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Potato Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HQ_steelhead,LF_steelhead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter Rearing,Fry,Summer Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Management for Protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Preston Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring Chinook,Steelhead,Bull Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead,HQ_bull_trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HQ_bull_trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hancock Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Fawn Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Wenatchee River Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Little Wenatchee River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spring Chinook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Fawn 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Thompson Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Nason Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter Rearing,Summer Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HQ_spring_chinook,HQ_steelhead,LF_steelhead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HQ_spring_chinook,HQ_steelhead,HQ_bull_trout,LF_bull_trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Beaver 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Beaver 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower White River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HQ_spring_chinook,LF_spring_chinook,HQ_bull_trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HQ_spring_chinook,HQ_steelhead,HQ_bull_trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Meadow Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Meadow Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steelhead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mad River Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Mad River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon Creek-Lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okanogan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smolt Outmigration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smolt Outmigration,Spawning and Incubation,Winter Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonasket 16-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonasket Creek DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Headwaters 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Headwaters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steelhead,Bull Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HQ_steelhead,HQ_bull_trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HQ_steelhead,HQ_bull_trout,LF_bull_trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile 16-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninemile Creek DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bull Trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LF_spring_chinook,LF_bull_trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LF_spring_chinook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LF_bull_trout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LF_spring_chinook,LF_steelhead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LF_steelhead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter Rearing,Fry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Wenatchee River Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Wenatchee River Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Beaver 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Beaver 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Beaver 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beaver Creek Lower 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Beaver Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Mills 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Mills Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Mills 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Bridge Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Bridge Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summer Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peshastin Creek Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Peshastin Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smolt Outmigration,Winter Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salmon 16-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 02</t>
+    <t xml:space="preserve">Etienne Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Peshastin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Mad River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 04</t>
   </si>
   <si>
     <t xml:space="preserve">Twisp River Upper 01</t>
@@ -985,7 +1057,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -994,13 +1066,13 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
@@ -1009,13 +1081,13 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
         <v>22</v>
@@ -1024,15 +1096,15 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -1041,13 +1113,13 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
@@ -1056,13 +1128,13 @@
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
         <v>22</v>
@@ -1071,15 +1143,15 @@
         <v>22</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -1126,7 +1198,7 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1173,7 +1245,7 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -1220,7 +1292,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1279,10 +1351,10 @@
         <v>40</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
         <v>22</v>
@@ -1294,63 +1366,63 @@
         <v>42</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M10" t="s">
         <v>22</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="O10" t="s">
         <v>23</v>
@@ -1358,25 +1430,25 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F11" t="n">
         <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
         <v>22</v>
@@ -1385,19 +1457,19 @@
         <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M11" t="s">
         <v>22</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O11" t="s">
         <v>23</v>
@@ -1405,25 +1477,25 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
         <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F12" t="n">
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
         <v>22</v>
@@ -1432,19 +1504,19 @@
         <v>41</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K12" t="n">
         <v>4</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="M12" t="s">
         <v>22</v>
       </c>
       <c r="N12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O12" t="s">
         <v>23</v>
@@ -1452,25 +1524,25 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F13" t="n">
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
         <v>22</v>
@@ -1479,19 +1551,19 @@
         <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="M13" t="s">
         <v>22</v>
       </c>
       <c r="N13" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="O13" t="s">
         <v>23</v>
@@ -1499,25 +1571,25 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F14" t="n">
         <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
         <v>22</v>
@@ -1526,19 +1598,19 @@
         <v>41</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="M14" t="s">
         <v>22</v>
       </c>
       <c r="N14" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="O14" t="s">
         <v>23</v>
@@ -1546,310 +1618,310 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F15" t="n">
         <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
         <v>57</v>
       </c>
-      <c r="I15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="s">
         <v>58</v>
       </c>
-      <c r="K15" t="n">
-        <v>3</v>
-      </c>
-      <c r="L15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" t="s">
-        <v>22</v>
-      </c>
       <c r="O15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F16" t="n">
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I16" t="s">
         <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" t="s">
         <v>29</v>
-      </c>
-      <c r="N16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F17" t="n">
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I17" t="s">
         <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K17" t="n">
         <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M17" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" t="s">
         <v>29</v>
-      </c>
-      <c r="N17" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F18" t="n">
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K18" t="n">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" t="s">
         <v>29</v>
-      </c>
-      <c r="N18" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
         <v>64</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" t="s">
-        <v>58</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N19" t="s">
         <v>22</v>
       </c>
       <c r="O19" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I20" t="s">
         <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N20" t="s">
         <v>22</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
         <v>22</v>
@@ -1870,33 +1942,33 @@
         <v>22</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
         <v>22</v>
@@ -1917,15 +1989,15 @@
         <v>22</v>
       </c>
       <c r="O22" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -1964,7 +2036,7 @@
         <v>22</v>
       </c>
       <c r="O23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1972,7 +2044,7 @@
         <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -2011,15 +2083,15 @@
         <v>22</v>
       </c>
       <c r="O24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
         <v>78</v>
-      </c>
-      <c r="B25" t="s">
-        <v>76</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -2063,10 +2135,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -2075,13 +2147,13 @@
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
         <v>21</v>
@@ -2090,13 +2162,13 @@
         <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M26" t="s">
         <v>22</v>
@@ -2105,7 +2177,7 @@
         <v>22</v>
       </c>
       <c r="O26" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -2113,7 +2185,7 @@
         <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
@@ -2122,13 +2194,13 @@
         <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" t="n">
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
         <v>21</v>
@@ -2137,95 +2209,95 @@
         <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K27" t="n">
         <v>2</v>
       </c>
       <c r="L27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" t="s">
         <v>29</v>
-      </c>
-      <c r="M27" t="s">
-        <v>22</v>
-      </c>
-      <c r="N27" t="s">
-        <v>22</v>
-      </c>
-      <c r="O27" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
         <v>82</v>
       </c>
-      <c r="B28" t="s">
-        <v>83</v>
-      </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
         <v>28</v>
       </c>
-      <c r="H28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I28" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" t="s">
-        <v>84</v>
-      </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L28" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="M28" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="N28" t="s">
         <v>22</v>
       </c>
       <c r="O28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -2234,19 +2306,19 @@
         <v>87</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" t="s">
         <v>87</v>
       </c>
-      <c r="M29" t="s">
-        <v>85</v>
-      </c>
       <c r="N29" t="s">
         <v>22</v>
       </c>
       <c r="O29" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30">
@@ -2254,148 +2326,148 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L30" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M30" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N30" t="s">
         <v>22</v>
       </c>
       <c r="O30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
         <v>89</v>
       </c>
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
       </c>
       <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" t="s">
+        <v>93</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3</v>
+      </c>
+      <c r="L31" t="s">
+        <v>93</v>
+      </c>
+      <c r="M31" t="s">
         <v>91</v>
       </c>
-      <c r="F31" t="n">
-        <v>3</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" t="s">
-        <v>57</v>
-      </c>
-      <c r="I31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="N31" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" t="s">
         <v>29</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2</v>
-      </c>
-      <c r="L31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" t="s">
-        <v>29</v>
-      </c>
-      <c r="N31" t="s">
-        <v>22</v>
-      </c>
-      <c r="O31" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" t="s">
+        <v>93</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3</v>
+      </c>
+      <c r="L32" t="s">
+        <v>93</v>
+      </c>
+      <c r="M32" t="s">
         <v>91</v>
       </c>
-      <c r="F32" t="n">
-        <v>3</v>
-      </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" t="s">
-        <v>57</v>
-      </c>
-      <c r="I32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="N32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" t="s">
         <v>29</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2</v>
-      </c>
-      <c r="L32" t="s">
-        <v>22</v>
-      </c>
-      <c r="M32" t="s">
-        <v>29</v>
-      </c>
-      <c r="N32" t="s">
-        <v>22</v>
-      </c>
-      <c r="O32" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -2404,7 +2476,7 @@
         <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F33" t="n">
         <v>3</v>
@@ -2413,13 +2485,13 @@
         <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I33" t="s">
         <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K33" t="n">
         <v>2</v>
@@ -2428,60 +2500,60 @@
         <v>22</v>
       </c>
       <c r="M33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" t="s">
         <v>29</v>
-      </c>
-      <c r="N33" t="s">
-        <v>22</v>
-      </c>
-      <c r="O33" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34" t="s">
         <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34" t="s">
         <v>22</v>
       </c>
       <c r="M34" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N34" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="O34" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -2489,43 +2561,43 @@
         <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G35" t="s">
         <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I35" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" t="s">
         <v>22</v>
       </c>
       <c r="M35" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N35" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="O35" t="s">
         <v>23</v>
@@ -2539,40 +2611,40 @@
         <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="F36" t="n">
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="M36" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="N36" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="O36" t="s">
         <v>23</v>
@@ -2586,107 +2658,107 @@
         <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="F37" t="n">
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="K37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="M37" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="N37" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="O37" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
         <v>104</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" t="s">
         <v>105</v>
       </c>
-      <c r="C38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="K38" t="n">
         <v>3</v>
       </c>
-      <c r="G38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" t="s">
-        <v>67</v>
-      </c>
-      <c r="J38" t="s">
-        <v>97</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1</v>
-      </c>
       <c r="L38" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M38" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="N38" t="s">
         <v>22</v>
       </c>
       <c r="O38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
         <v>107</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" t="s">
         <v>108</v>
-      </c>
-      <c r="C39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" t="s">
-        <v>19</v>
       </c>
       <c r="F39" t="n">
         <v>2</v>
@@ -2695,10 +2767,10 @@
         <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J39" t="s">
         <v>22</v>
@@ -2716,7 +2788,7 @@
         <v>22</v>
       </c>
       <c r="O39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
@@ -2724,28 +2796,28 @@
         <v>109</v>
       </c>
       <c r="B40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
         <v>108</v>
       </c>
-      <c r="C40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" t="s">
-        <v>110</v>
-      </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G40" t="s">
         <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I40" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="J40" t="s">
         <v>22</v>
@@ -2763,45 +2835,45 @@
         <v>22</v>
       </c>
       <c r="O40" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" t="s">
         <v>111</v>
       </c>
-      <c r="B41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" t="s">
-        <v>21</v>
-      </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J41" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="M41" t="s">
         <v>22</v>
@@ -2810,48 +2882,48 @@
         <v>22</v>
       </c>
       <c r="O41" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J42" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L42" t="s">
         <v>22</v>
       </c>
       <c r="M42" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N42" t="s">
         <v>22</v>
@@ -2862,43 +2934,43 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J43" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="s">
         <v>22</v>
       </c>
       <c r="M43" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="N43" t="s">
         <v>22</v>
@@ -2909,160 +2981,160 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
         <v>117</v>
       </c>
-      <c r="C44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" t="s">
-        <v>113</v>
-      </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" t="s">
         <v>22</v>
       </c>
       <c r="H44" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
         <v>22</v>
       </c>
       <c r="J44" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L44" t="s">
         <v>22</v>
       </c>
       <c r="M44" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="N44" t="s">
         <v>22</v>
       </c>
       <c r="O44" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
         <v>117</v>
       </c>
-      <c r="C45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45" t="s">
-        <v>113</v>
-      </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" t="s">
         <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
       </c>
       <c r="J45" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="s">
         <v>22</v>
       </c>
       <c r="M45" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="N45" t="s">
         <v>22</v>
       </c>
       <c r="O45" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="s">
         <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I46" t="s">
         <v>22</v>
       </c>
       <c r="J46" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="s">
         <v>22</v>
       </c>
       <c r="M46" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="N46" t="s">
         <v>22</v>
       </c>
       <c r="O46" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E47" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="F47" t="n">
         <v>2</v>
@@ -3071,60 +3143,60 @@
         <v>22</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I47" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="J47" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L47" t="s">
         <v>22</v>
       </c>
       <c r="M47" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="N47" t="s">
         <v>22</v>
       </c>
       <c r="O47" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E48" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" t="s">
         <v>22</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I48" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J48" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
@@ -3133,27 +3205,27 @@
         <v>22</v>
       </c>
       <c r="M48" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="N48" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="O48" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
@@ -3186,24 +3258,24 @@
         <v>22</v>
       </c>
       <c r="O49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="F50" t="n">
         <v>2</v>
@@ -3212,16 +3284,16 @@
         <v>22</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J50" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="K50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L50" t="s">
         <v>22</v>
@@ -3230,7 +3302,7 @@
         <v>22</v>
       </c>
       <c r="N50" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="O50" t="s">
         <v>23</v>
@@ -3238,37 +3310,37 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E51" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51" t="s">
         <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I51" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="J51" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="s">
         <v>22</v>
@@ -3277,7 +3349,7 @@
         <v>22</v>
       </c>
       <c r="N51" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="O51" t="s">
         <v>23</v>
@@ -3285,93 +3357,93 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="E52" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="K52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M52" t="s">
         <v>22</v>
       </c>
       <c r="N52" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="O52" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="F53" t="n">
         <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H53" t="s">
         <v>22</v>
       </c>
       <c r="I53" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="J53" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L53" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M53" t="s">
         <v>22</v>
       </c>
       <c r="N53" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="O53" t="s">
         <v>23</v>
@@ -3379,234 +3451,234 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="E54" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="H54" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J54" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="K54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="M54" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N54" t="s">
         <v>22</v>
       </c>
       <c r="O54" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F55" t="n">
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H55" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" t="s">
+        <v>142</v>
+      </c>
+      <c r="J55" t="s">
         <v>143</v>
       </c>
-      <c r="I55" t="s">
-        <v>22</v>
-      </c>
-      <c r="J55" t="s">
-        <v>145</v>
-      </c>
       <c r="K55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M55" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="N55" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="O55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F56" t="n">
         <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H56" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="I56" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="J56" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L56" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M56" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N56" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="O56" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F57" t="n">
         <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H57" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="I57" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="J57" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L57" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="M57" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="N57" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="O57" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D58" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H58" t="s">
         <v>22</v>
       </c>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="J58" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L58" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="M58" t="s">
         <v>22</v>
       </c>
       <c r="N58" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="O58" t="s">
         <v>23</v>
@@ -3614,166 +3686,166 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D59" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="I59" t="s">
         <v>22</v>
       </c>
       <c r="J59" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L59" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="M59" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="N59" t="s">
         <v>22</v>
       </c>
       <c r="O59" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H60" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
       </c>
       <c r="J60" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L60" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="M60" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N60" t="s">
         <v>22</v>
       </c>
       <c r="O60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>155</v>
+      </c>
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
         <v>151</v>
       </c>
-      <c r="B61" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E61" t="s">
-        <v>138</v>
-      </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H61" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="I61" t="s">
         <v>22</v>
       </c>
       <c r="J61" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L61" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="M61" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N61" t="s">
         <v>22</v>
       </c>
       <c r="O61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E62" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H62" t="s">
         <v>22</v>
@@ -3782,13 +3854,13 @@
         <v>22</v>
       </c>
       <c r="J62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K62" t="n">
         <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M62" t="s">
         <v>22</v>
@@ -3797,30 +3869,30 @@
         <v>22</v>
       </c>
       <c r="O62" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
       </c>
       <c r="D63" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H63" t="s">
         <v>22</v>
@@ -3829,13 +3901,13 @@
         <v>22</v>
       </c>
       <c r="J63" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K63" t="n">
         <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M63" t="s">
         <v>22</v>
@@ -3844,30 +3916,30 @@
         <v>22</v>
       </c>
       <c r="O63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E64" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F64" t="n">
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H64" t="s">
         <v>22</v>
@@ -3876,13 +3948,13 @@
         <v>22</v>
       </c>
       <c r="J64" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M64" t="s">
         <v>22</v>
@@ -3891,30 +3963,30 @@
         <v>22</v>
       </c>
       <c r="O64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E65" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H65" t="s">
         <v>22</v>
@@ -3923,509 +3995,509 @@
         <v>22</v>
       </c>
       <c r="J65" t="s">
+        <v>91</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
+        <v>91</v>
+      </c>
+      <c r="M65" t="s">
+        <v>22</v>
+      </c>
+      <c r="N65" t="s">
+        <v>22</v>
+      </c>
+      <c r="O65" t="s">
         <v>29</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2</v>
-      </c>
-      <c r="L65" t="s">
-        <v>29</v>
-      </c>
-      <c r="M65" t="s">
-        <v>22</v>
-      </c>
-      <c r="N65" t="s">
-        <v>22</v>
-      </c>
-      <c r="O65" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="E66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H66" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="I66" t="s">
         <v>22</v>
       </c>
       <c r="J66" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L66" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="M66" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="N66" t="s">
         <v>22</v>
       </c>
       <c r="O66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="E67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H67" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="I67" t="s">
         <v>22</v>
       </c>
       <c r="J67" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="K67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L67" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="M67" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="N67" t="s">
         <v>22</v>
       </c>
       <c r="O67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="E68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H68" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="I68" t="s">
         <v>22</v>
       </c>
       <c r="J68" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="K68" t="n">
         <v>2</v>
       </c>
       <c r="L68" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="M68" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="N68" t="s">
         <v>22</v>
       </c>
       <c r="O68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F69" t="n">
         <v>2</v>
       </c>
       <c r="G69" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H69" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="I69" t="s">
         <v>22</v>
       </c>
       <c r="J69" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="K69" t="n">
         <v>2</v>
       </c>
       <c r="L69" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="M69" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N69" t="s">
         <v>22</v>
       </c>
       <c r="O69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
       </c>
       <c r="E70" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F70" t="n">
         <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H70" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="I70" t="s">
         <v>22</v>
       </c>
       <c r="J70" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="K70" t="n">
         <v>2</v>
       </c>
       <c r="L70" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="M70" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N70" t="s">
         <v>22</v>
       </c>
       <c r="O70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D71" t="s">
         <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F71" t="n">
         <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H71" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="I71" t="s">
         <v>22</v>
       </c>
       <c r="J71" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="K71" t="n">
         <v>2</v>
       </c>
       <c r="L71" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="M71" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N71" t="s">
         <v>22</v>
       </c>
       <c r="O71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B72" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D72" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="H72" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="I72" t="s">
         <v>22</v>
       </c>
       <c r="J72" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L72" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="M72" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="N72" t="s">
         <v>22</v>
       </c>
       <c r="O72" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
         <v>38</v>
       </c>
       <c r="D73" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="H73" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="I73" t="s">
         <v>22</v>
       </c>
       <c r="J73" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L73" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="M73" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N73" t="s">
         <v>22</v>
       </c>
       <c r="O73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="C74" t="s">
         <v>38</v>
       </c>
       <c r="D74" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="H74" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="I74" t="s">
         <v>22</v>
       </c>
       <c r="J74" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="M74" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N74" t="s">
         <v>22</v>
       </c>
       <c r="O74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D75" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="H75" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="I75" t="s">
         <v>22</v>
       </c>
       <c r="J75" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L75" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="M75" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="N75" t="s">
         <v>22</v>
       </c>
       <c r="O75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
@@ -4434,13 +4506,13 @@
         <v>22</v>
       </c>
       <c r="H76" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="I76" t="s">
         <v>22</v>
       </c>
       <c r="J76" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K76" t="n">
         <v>1</v>
@@ -4449,30 +4521,30 @@
         <v>22</v>
       </c>
       <c r="M76" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="N76" t="s">
         <v>22</v>
       </c>
       <c r="O76" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B77" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" t="s">
         <v>117</v>
       </c>
-      <c r="C77" t="s">
-        <v>118</v>
-      </c>
-      <c r="D77" t="s">
-        <v>113</v>
-      </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
@@ -4481,13 +4553,13 @@
         <v>22</v>
       </c>
       <c r="H77" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="I77" t="s">
         <v>22</v>
       </c>
       <c r="J77" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="K77" t="n">
         <v>1</v>
@@ -4496,30 +4568,30 @@
         <v>22</v>
       </c>
       <c r="M77" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="N77" t="s">
         <v>22</v>
       </c>
       <c r="O77" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B78" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" t="s">
         <v>117</v>
       </c>
-      <c r="C78" t="s">
-        <v>118</v>
-      </c>
-      <c r="D78" t="s">
-        <v>113</v>
-      </c>
       <c r="E78" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
@@ -4528,45 +4600,45 @@
         <v>22</v>
       </c>
       <c r="H78" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="I78" t="s">
         <v>22</v>
       </c>
       <c r="J78" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="K78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L78" t="s">
         <v>22</v>
       </c>
       <c r="M78" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="N78" t="s">
         <v>22</v>
       </c>
       <c r="O78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B79" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79" t="s">
         <v>117</v>
       </c>
-      <c r="C79" t="s">
-        <v>118</v>
-      </c>
-      <c r="D79" t="s">
-        <v>113</v>
-      </c>
       <c r="E79" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
@@ -4575,13 +4647,13 @@
         <v>22</v>
       </c>
       <c r="H79" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="I79" t="s">
         <v>22</v>
       </c>
       <c r="J79" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
@@ -4590,30 +4662,30 @@
         <v>22</v>
       </c>
       <c r="M79" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="N79" t="s">
         <v>22</v>
       </c>
       <c r="O79" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B80" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80" t="s">
         <v>117</v>
       </c>
-      <c r="C80" t="s">
-        <v>118</v>
-      </c>
-      <c r="D80" t="s">
-        <v>113</v>
-      </c>
       <c r="E80" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
@@ -4622,13 +4694,13 @@
         <v>22</v>
       </c>
       <c r="H80" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="I80" t="s">
         <v>22</v>
       </c>
       <c r="J80" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="K80" t="n">
         <v>1</v>
@@ -4637,30 +4709,30 @@
         <v>22</v>
       </c>
       <c r="M80" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="N80" t="s">
         <v>22</v>
       </c>
       <c r="O80" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B81" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
         <v>117</v>
       </c>
-      <c r="C81" t="s">
-        <v>118</v>
-      </c>
-      <c r="D81" t="s">
-        <v>113</v>
-      </c>
       <c r="E81" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
@@ -4669,13 +4741,13 @@
         <v>22</v>
       </c>
       <c r="H81" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="I81" t="s">
         <v>22</v>
       </c>
       <c r="J81" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="K81" t="n">
         <v>1</v>
@@ -4684,30 +4756,30 @@
         <v>22</v>
       </c>
       <c r="M81" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="N81" t="s">
         <v>22</v>
       </c>
       <c r="O81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B82" t="s">
+        <v>181</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
         <v>117</v>
       </c>
-      <c r="C82" t="s">
-        <v>118</v>
-      </c>
-      <c r="D82" t="s">
-        <v>113</v>
-      </c>
       <c r="E82" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
@@ -4716,13 +4788,13 @@
         <v>22</v>
       </c>
       <c r="H82" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
       </c>
       <c r="J82" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="K82" t="n">
         <v>1</v>
@@ -4731,30 +4803,30 @@
         <v>22</v>
       </c>
       <c r="M82" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="N82" t="s">
         <v>22</v>
       </c>
       <c r="O82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B83" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="C83" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D83" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -4763,25 +4835,25 @@
         <v>22</v>
       </c>
       <c r="H83" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="I83" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="J83" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L83" t="s">
         <v>22</v>
       </c>
       <c r="M83" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N83" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="O83" t="s">
         <v>23</v>
@@ -4789,48 +4861,659 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B84" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C84" t="s">
+        <v>121</v>
+      </c>
+      <c r="D84" t="s">
+        <v>117</v>
+      </c>
+      <c r="E84" t="s">
+        <v>152</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" t="s">
+        <v>152</v>
+      </c>
+      <c r="I84" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" t="s">
+        <v>122</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="s">
+        <v>22</v>
+      </c>
+      <c r="M84" t="s">
+        <v>122</v>
+      </c>
+      <c r="N84" t="s">
+        <v>22</v>
+      </c>
+      <c r="O84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>187</v>
+      </c>
+      <c r="B85" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D85" t="s">
+        <v>117</v>
+      </c>
+      <c r="E85" t="s">
+        <v>152</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" t="s">
+        <v>152</v>
+      </c>
+      <c r="I85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" t="s">
+        <v>188</v>
+      </c>
+      <c r="K85" t="n">
+        <v>2</v>
+      </c>
+      <c r="L85" t="s">
+        <v>22</v>
+      </c>
+      <c r="M85" t="s">
+        <v>188</v>
+      </c>
+      <c r="N85" t="s">
+        <v>22</v>
+      </c>
+      <c r="O85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>189</v>
+      </c>
+      <c r="B86" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" t="s">
+        <v>121</v>
+      </c>
+      <c r="D86" t="s">
+        <v>117</v>
+      </c>
+      <c r="E86" t="s">
+        <v>152</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" t="s">
+        <v>152</v>
+      </c>
+      <c r="I86" t="s">
+        <v>22</v>
+      </c>
+      <c r="J86" t="s">
+        <v>122</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="s">
+        <v>22</v>
+      </c>
+      <c r="M86" t="s">
+        <v>122</v>
+      </c>
+      <c r="N86" t="s">
+        <v>22</v>
+      </c>
+      <c r="O86" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>190</v>
+      </c>
+      <c r="B87" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" t="s">
+        <v>121</v>
+      </c>
+      <c r="D87" t="s">
+        <v>117</v>
+      </c>
+      <c r="E87" t="s">
+        <v>152</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" t="s">
+        <v>152</v>
+      </c>
+      <c r="I87" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" t="s">
+        <v>122</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>22</v>
+      </c>
+      <c r="M87" t="s">
+        <v>122</v>
+      </c>
+      <c r="N87" t="s">
+        <v>22</v>
+      </c>
+      <c r="O87" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>191</v>
+      </c>
+      <c r="B88" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" t="s">
+        <v>121</v>
+      </c>
+      <c r="D88" t="s">
+        <v>117</v>
+      </c>
+      <c r="E88" t="s">
+        <v>152</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" t="s">
+        <v>152</v>
+      </c>
+      <c r="I88" t="s">
+        <v>22</v>
+      </c>
+      <c r="J88" t="s">
+        <v>122</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="s">
+        <v>22</v>
+      </c>
+      <c r="M88" t="s">
+        <v>122</v>
+      </c>
+      <c r="N88" t="s">
+        <v>22</v>
+      </c>
+      <c r="O88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" t="s">
+        <v>121</v>
+      </c>
+      <c r="D89" t="s">
+        <v>117</v>
+      </c>
+      <c r="E89" t="s">
+        <v>152</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" t="s">
+        <v>152</v>
+      </c>
+      <c r="I89" t="s">
+        <v>22</v>
+      </c>
+      <c r="J89" t="s">
+        <v>122</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="s">
+        <v>22</v>
+      </c>
+      <c r="M89" t="s">
+        <v>122</v>
+      </c>
+      <c r="N89" t="s">
+        <v>22</v>
+      </c>
+      <c r="O89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>193</v>
+      </c>
+      <c r="B90" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" t="s">
+        <v>137</v>
+      </c>
+      <c r="E90" t="s">
+        <v>142</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" t="s">
+        <v>22</v>
+      </c>
+      <c r="I90" t="s">
+        <v>142</v>
+      </c>
+      <c r="J90" t="s">
+        <v>87</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="s">
+        <v>22</v>
+      </c>
+      <c r="M90" t="s">
+        <v>22</v>
+      </c>
+      <c r="N90" t="s">
+        <v>87</v>
+      </c>
+      <c r="O90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>195</v>
+      </c>
+      <c r="B91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" t="s">
+        <v>50</v>
+      </c>
+      <c r="D91" t="s">
+        <v>137</v>
+      </c>
+      <c r="E91" t="s">
+        <v>142</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" t="s">
+        <v>22</v>
+      </c>
+      <c r="I91" t="s">
+        <v>142</v>
+      </c>
+      <c r="J91" t="s">
+        <v>87</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="s">
+        <v>22</v>
+      </c>
+      <c r="M91" t="s">
+        <v>22</v>
+      </c>
+      <c r="N91" t="s">
+        <v>87</v>
+      </c>
+      <c r="O91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" t="s">
+        <v>137</v>
+      </c>
+      <c r="E92" t="s">
+        <v>142</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>22</v>
+      </c>
+      <c r="H92" t="s">
+        <v>22</v>
+      </c>
+      <c r="I92" t="s">
+        <v>142</v>
+      </c>
+      <c r="J92" t="s">
+        <v>87</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="s">
+        <v>22</v>
+      </c>
+      <c r="M92" t="s">
+        <v>22</v>
+      </c>
+      <c r="N92" t="s">
+        <v>87</v>
+      </c>
+      <c r="O92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>198</v>
+      </c>
+      <c r="B93" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" t="s">
+        <v>50</v>
+      </c>
+      <c r="D93" t="s">
+        <v>137</v>
+      </c>
+      <c r="E93" t="s">
+        <v>142</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" t="s">
+        <v>22</v>
+      </c>
+      <c r="I93" t="s">
+        <v>142</v>
+      </c>
+      <c r="J93" t="s">
+        <v>200</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2</v>
+      </c>
+      <c r="L93" t="s">
+        <v>22</v>
+      </c>
+      <c r="M93" t="s">
+        <v>22</v>
+      </c>
+      <c r="N93" t="s">
+        <v>200</v>
+      </c>
+      <c r="O93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>201</v>
+      </c>
+      <c r="B94" t="s">
+        <v>199</v>
+      </c>
+      <c r="C94" t="s">
+        <v>50</v>
+      </c>
+      <c r="D94" t="s">
+        <v>137</v>
+      </c>
+      <c r="E94" t="s">
+        <v>142</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" t="s">
+        <v>22</v>
+      </c>
+      <c r="I94" t="s">
+        <v>142</v>
+      </c>
+      <c r="J94" t="s">
+        <v>178</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="s">
+        <v>22</v>
+      </c>
+      <c r="M94" t="s">
+        <v>22</v>
+      </c>
+      <c r="N94" t="s">
+        <v>178</v>
+      </c>
+      <c r="O94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" t="s">
+        <v>199</v>
+      </c>
+      <c r="C95" t="s">
+        <v>50</v>
+      </c>
+      <c r="D95" t="s">
+        <v>137</v>
+      </c>
+      <c r="E95" t="s">
+        <v>142</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>22</v>
+      </c>
+      <c r="H95" t="s">
+        <v>22</v>
+      </c>
+      <c r="I95" t="s">
+        <v>142</v>
+      </c>
+      <c r="J95" t="s">
+        <v>178</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="s">
+        <v>22</v>
+      </c>
+      <c r="M95" t="s">
+        <v>22</v>
+      </c>
+      <c r="N95" t="s">
+        <v>178</v>
+      </c>
+      <c r="O95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B96" t="s">
+        <v>199</v>
+      </c>
+      <c r="C96" t="s">
+        <v>50</v>
+      </c>
+      <c r="D96" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" t="s">
+        <v>142</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" t="s">
+        <v>22</v>
+      </c>
+      <c r="I96" t="s">
+        <v>142</v>
+      </c>
+      <c r="J96" t="s">
+        <v>178</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="s">
+        <v>22</v>
+      </c>
+      <c r="M96" t="s">
+        <v>22</v>
+      </c>
+      <c r="N96" t="s">
+        <v>178</v>
+      </c>
+      <c r="O96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>204</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" t="s">
         <v>17</v>
       </c>
-      <c r="D84" t="s">
-        <v>134</v>
-      </c>
-      <c r="E84" t="s">
-        <v>139</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" t="s">
-        <v>22</v>
-      </c>
-      <c r="I84" t="s">
-        <v>139</v>
-      </c>
-      <c r="J84" t="s">
-        <v>97</v>
-      </c>
-      <c r="K84" t="n">
-        <v>1</v>
-      </c>
-      <c r="L84" t="s">
-        <v>22</v>
-      </c>
-      <c r="M84" t="s">
-        <v>22</v>
-      </c>
-      <c r="N84" t="s">
-        <v>97</v>
-      </c>
-      <c r="O84" t="s">
+      <c r="D97" t="s">
+        <v>137</v>
+      </c>
+      <c r="E97" t="s">
+        <v>142</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" t="s">
+        <v>22</v>
+      </c>
+      <c r="I97" t="s">
+        <v>142</v>
+      </c>
+      <c r="J97" t="s">
+        <v>87</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="s">
+        <v>22</v>
+      </c>
+      <c r="M97" t="s">
+        <v>22</v>
+      </c>
+      <c r="N97" t="s">
+        <v>87</v>
+      </c>
+      <c r="O97" t="s">
         <v>23</v>
       </c>
     </row>
